--- a/testcases/tc_addVehicle.xlsx
+++ b/testcases/tc_addVehicle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="55">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -620,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K53"/>
+  <dimension ref="B2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,36 +813,50 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
@@ -850,10 +864,10 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -876,13 +890,13 @@
     </row>
     <row r="14" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>26</v>
@@ -894,13 +908,13 @@
         <v>17</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>11</v>
@@ -915,7 +929,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -931,7 +945,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -939,66 +953,66 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
@@ -1006,26 +1020,26 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1033,82 +1047,96 @@
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="H25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="J25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
@@ -1116,77 +1144,77 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+    <row r="27" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
@@ -1194,10 +1222,10 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1205,82 +1233,82 @@
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
@@ -1288,10 +1316,10 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -1299,82 +1327,82 @@
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
@@ -1382,10 +1410,10 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -1393,281 +1421,54 @@
       <c r="K40" s="4"/>
     </row>
     <row r="41" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="J49:J53"/>
-    <mergeCell ref="K49:K53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="K39:K43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="J44:J48"/>
-    <mergeCell ref="K44:K48"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
@@ -1684,39 +1485,46 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="K37:K41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="H37:H41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
